--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Описание</t>
   </si>
@@ -133,22 +133,34 @@
     <t>1+, 1-</t>
   </si>
   <si>
-    <t>7-</t>
-  </si>
-  <si>
-    <t>3-</t>
+    <t>1+, 9-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
   </si>
   <si>
     <t>1-</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
+    <t>630</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>9-</t>
   </si>
   <si>
     <t>703</t>
+  </si>
+  <si>
+    <t>939</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -648,31 +660,31 @@
         <v>32</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -695,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -707,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,17 +750,17 @@
       <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -756,19 +768,25 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -779,11 +797,57 @@
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M8"/>
+  <autoFilter ref="A1:M10"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -810,6 +874,8 @@
     <hyperlink ref="B6" r:id="rId23"/>
     <hyperlink ref="B7" r:id="rId24"/>
     <hyperlink ref="B8" r:id="rId25"/>
+    <hyperlink ref="B9" r:id="rId26"/>
+    <hyperlink ref="B10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Описание</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>1-</t>
   </si>
   <si>
     <t>630</t>
@@ -675,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -713,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -782,8 +779,11 @@
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
@@ -794,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>41</v>
@@ -803,10 +803,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -814,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
@@ -828,7 +828,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>37</v>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Описание</t>
   </si>
@@ -88,7 +88,7 @@
     <t>451152</t>
   </si>
   <si>
-    <t>369711</t>
+    <t>520834</t>
   </si>
   <si>
     <t>521344</t>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -759,6 +759,9 @@
       <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -788,6 +791,9 @@
       <c r="K7" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -844,6 +850,9 @@
       </c>
       <c r="K10" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Описание</t>
   </si>
@@ -158,6 +158,39 @@
   </si>
   <si>
     <t>939</t>
+  </si>
+  <si>
+    <t>25.01.10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>52C</t>
   </si>
 </sst>
 </file>
@@ -523,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -657,25 +690,25 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -719,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -855,8 +888,102 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M10"/>
+  <autoFilter ref="A1:M15"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -885,6 +1012,11 @@
     <hyperlink ref="B8" r:id="rId25"/>
     <hyperlink ref="B9" r:id="rId26"/>
     <hyperlink ref="B10" r:id="rId27"/>
+    <hyperlink ref="B11" r:id="rId28"/>
+    <hyperlink ref="B12" r:id="rId29"/>
+    <hyperlink ref="B13" r:id="rId30"/>
+    <hyperlink ref="B14" r:id="rId31"/>
+    <hyperlink ref="B15" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Описание</t>
   </si>
@@ -151,7 +151,7 @@
     <t>6-</t>
   </si>
   <si>
-    <t>9-</t>
+    <t>13-</t>
   </si>
   <si>
     <t>703</t>
@@ -175,6 +175,18 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
     <t>982</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
   </si>
   <si>
     <t>1+, 6-</t>
-  </si>
-  <si>
-    <t>4-</t>
   </si>
   <si>
     <t>52C</t>
@@ -556,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -690,16 +699,16 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -714,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -752,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -910,6 +919,9 @@
       <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -921,11 +933,17 @@
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -933,19 +951,13 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -953,37 +965,77 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M15"/>
+  <autoFilter ref="A1:M17"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1017,6 +1069,8 @@
     <hyperlink ref="B13" r:id="rId30"/>
     <hyperlink ref="B14" r:id="rId31"/>
     <hyperlink ref="B15" r:id="rId32"/>
+    <hyperlink ref="B16" r:id="rId33"/>
+    <hyperlink ref="B17" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
   <si>
     <t>Описание</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Мухаметов Максим</t>
   </si>
   <si>
+    <t>Мухаметов Максим v2</t>
+  </si>
+  <si>
     <t>Зайковский Артём</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>451152</t>
   </si>
   <si>
+    <t>369711</t>
+  </si>
+  <si>
     <t>520834</t>
   </si>
   <si>
@@ -196,10 +202,19 @@
     <t>2+, 3-</t>
   </si>
   <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>1+, 6-</t>
   </si>
   <si>
     <t>52C</t>
+  </si>
+  <si>
+    <t>25.01.11</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
 </sst>
 </file>
@@ -565,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -574,10 +589,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="10.7109375" customWidth="1"/>
+    <col min="1" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,107 +632,116 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -729,12 +753,15 @@
         <v>3</v>
       </c>
       <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -761,281 +788,331 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="L16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17"/>
+  <autoFilter ref="A1:N18"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1048,29 +1125,32 @@
     <hyperlink ref="K2" r:id="rId9"/>
     <hyperlink ref="L2" r:id="rId10"/>
     <hyperlink ref="M2" r:id="rId11"/>
-    <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="D3" r:id="rId13"/>
-    <hyperlink ref="E3" r:id="rId14"/>
-    <hyperlink ref="F3" r:id="rId15"/>
-    <hyperlink ref="G3" r:id="rId16"/>
-    <hyperlink ref="H3" r:id="rId17"/>
-    <hyperlink ref="I3" r:id="rId18"/>
-    <hyperlink ref="J3" r:id="rId19"/>
-    <hyperlink ref="K3" r:id="rId20"/>
-    <hyperlink ref="L3" r:id="rId21"/>
-    <hyperlink ref="M3" r:id="rId22"/>
-    <hyperlink ref="B6" r:id="rId23"/>
-    <hyperlink ref="B7" r:id="rId24"/>
-    <hyperlink ref="B8" r:id="rId25"/>
-    <hyperlink ref="B9" r:id="rId26"/>
-    <hyperlink ref="B10" r:id="rId27"/>
-    <hyperlink ref="B11" r:id="rId28"/>
-    <hyperlink ref="B12" r:id="rId29"/>
-    <hyperlink ref="B13" r:id="rId30"/>
-    <hyperlink ref="B14" r:id="rId31"/>
-    <hyperlink ref="B15" r:id="rId32"/>
-    <hyperlink ref="B16" r:id="rId33"/>
-    <hyperlink ref="B17" r:id="rId34"/>
+    <hyperlink ref="N2" r:id="rId12"/>
+    <hyperlink ref="C3" r:id="rId13"/>
+    <hyperlink ref="D3" r:id="rId14"/>
+    <hyperlink ref="E3" r:id="rId15"/>
+    <hyperlink ref="F3" r:id="rId16"/>
+    <hyperlink ref="G3" r:id="rId17"/>
+    <hyperlink ref="H3" r:id="rId18"/>
+    <hyperlink ref="I3" r:id="rId19"/>
+    <hyperlink ref="J3" r:id="rId20"/>
+    <hyperlink ref="K3" r:id="rId21"/>
+    <hyperlink ref="L3" r:id="rId22"/>
+    <hyperlink ref="M3" r:id="rId23"/>
+    <hyperlink ref="N3" r:id="rId24"/>
+    <hyperlink ref="B6" r:id="rId25"/>
+    <hyperlink ref="B7" r:id="rId26"/>
+    <hyperlink ref="B8" r:id="rId27"/>
+    <hyperlink ref="B9" r:id="rId28"/>
+    <hyperlink ref="B10" r:id="rId29"/>
+    <hyperlink ref="B11" r:id="rId30"/>
+    <hyperlink ref="B12" r:id="rId31"/>
+    <hyperlink ref="B13" r:id="rId32"/>
+    <hyperlink ref="B14" r:id="rId33"/>
+    <hyperlink ref="B15" r:id="rId34"/>
+    <hyperlink ref="B16" r:id="rId35"/>
+    <hyperlink ref="B17" r:id="rId36"/>
+    <hyperlink ref="B18" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$28</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
   <si>
     <t>Описание</t>
   </si>
@@ -115,6 +115,12 @@
     <t>pchelka12</t>
   </si>
   <si>
+    <t>DanilGoose</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -229,16 +235,43 @@
     <t>450</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>708</t>
   </si>
   <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
     <t>5-</t>
   </si>
   <si>
     <t>25.01.12</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>302</t>
+  </si>
+  <si>
+    <t>1+, 10-</t>
+  </si>
+  <si>
+    <t>18-</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>626</t>
   </si>
 </sst>
 </file>
@@ -604,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -718,10 +751,10 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -744,37 +777,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -785,34 +818,34 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -826,450 +859,586 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="G25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23"/>
+  <autoFilter ref="A1:N28"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1313,6 +1482,11 @@
     <hyperlink ref="B21" r:id="rId40"/>
     <hyperlink ref="B22" r:id="rId41"/>
     <hyperlink ref="B23" r:id="rId42"/>
+    <hyperlink ref="B24" r:id="rId43"/>
+    <hyperlink ref="B25" r:id="rId44"/>
+    <hyperlink ref="B26" r:id="rId45"/>
+    <hyperlink ref="B27" r:id="rId46"/>
+    <hyperlink ref="B28" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
   <si>
     <t>Описание</t>
   </si>
@@ -154,12 +154,18 @@
     <t>630</t>
   </si>
   <si>
+    <t>9-</t>
+  </si>
+  <si>
+    <t>18-</t>
+  </si>
+  <si>
+    <t>14-</t>
+  </si>
+  <si>
     <t>6-</t>
   </si>
   <si>
-    <t>14-</t>
-  </si>
-  <si>
     <t>703</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>2-</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>640</t>
   </si>
   <si>
@@ -235,9 +244,6 @@
     <t>450</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>708</t>
   </si>
   <si>
@@ -259,12 +265,12 @@
     <t>1+, 10-</t>
   </si>
   <si>
-    <t>18-</t>
-  </si>
-  <si>
     <t>396</t>
   </si>
   <si>
+    <t>1+, 18-</t>
+  </si>
+  <si>
     <t>523</t>
   </si>
   <si>
@@ -272,6 +278,12 @@
   </si>
   <si>
     <t>626</t>
+  </si>
+  <si>
+    <t>25.01.13</t>
+  </si>
+  <si>
+    <t>1047</t>
   </si>
 </sst>
 </file>
@@ -637,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -780,19 +792,19 @@
         <v>34</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>19</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -804,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -830,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -845,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -940,11 +952,14 @@
       <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -952,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -969,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -992,10 +1007,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
@@ -1010,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>39</v>
@@ -1021,10 +1036,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
@@ -1033,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>38</v>
@@ -1042,32 +1057,35 @@
         <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -1087,25 +1105,25 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>38</v>
@@ -1113,10 +1131,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
@@ -1125,16 +1143,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>40</v>
@@ -1145,10 +1163,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>39</v>
@@ -1157,15 +1175,15 @@
         <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
@@ -1180,7 +1198,7 @@
         <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>38</v>
@@ -1194,10 +1212,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -1215,21 +1233,21 @@
         <v>38</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -1238,21 +1256,21 @@
         <v>38</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>38</v>
@@ -1264,7 +1282,7 @@
         <v>38</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>39</v>
@@ -1275,39 +1293,39 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>43</v>
@@ -1318,31 +1336,34 @@
       <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>38</v>
@@ -1350,39 +1371,45 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>38</v>
@@ -1399,10 +1426,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>43</v>
@@ -1410,26 +1437,35 @@
       <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1437,8 +1473,19 @@
         <v>38</v>
       </c>
     </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N28"/>
+  <autoFilter ref="A1:N29"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1487,6 +1534,7 @@
     <hyperlink ref="B26" r:id="rId45"/>
     <hyperlink ref="B27" r:id="rId46"/>
     <hyperlink ref="B28" r:id="rId47"/>
+    <hyperlink ref="B29" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$33</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>Описание</t>
   </si>
@@ -232,24 +232,24 @@
     <t>194</t>
   </si>
   <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
     <t>1-</t>
   </si>
   <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
-  </si>
-  <si>
     <t>5-</t>
   </si>
   <si>
@@ -283,7 +283,31 @@
     <t>25.01.13</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>2+, 8-</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>10-</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>1047</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>5+, 1-</t>
   </si>
 </sst>
 </file>
@@ -649,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -792,34 +816,34 @@
         <v>34</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -845,13 +869,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -860,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1232,8 +1256,8 @@
       <c r="H19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>71</v>
+      <c r="I19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>53</v>
@@ -1247,16 +1271,16 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1264,7 +1288,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>43</v>
@@ -1281,8 +1305,8 @@
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>59</v>
+      <c r="I21" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>39</v>
@@ -1296,13 +1320,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>64</v>
@@ -1311,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>77</v>
@@ -1380,7 +1404,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>65</v>
@@ -1481,11 +1505,124 @@
         <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N29"/>
+  <autoFilter ref="A1:N33"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1535,6 +1672,10 @@
     <hyperlink ref="B27" r:id="rId46"/>
     <hyperlink ref="B28" r:id="rId47"/>
     <hyperlink ref="B29" r:id="rId48"/>
+    <hyperlink ref="B30" r:id="rId49"/>
+    <hyperlink ref="B31" r:id="rId50"/>
+    <hyperlink ref="B32" r:id="rId51"/>
+    <hyperlink ref="B33" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/all.xlsx
+++ b/groups/24-25-Univers/tasks_results/all.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$N$37</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
   <si>
     <t>Описание</t>
   </si>
@@ -121,6 +121,12 @@
     <t>kjuby</t>
   </si>
   <si>
+    <t>MaximTreg</t>
+  </si>
+  <si>
+    <t>azzazichka</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>52C</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
     <t>25.01.11</t>
   </si>
   <si>
@@ -250,9 +259,6 @@
     <t>1-</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>25.01.12</t>
   </si>
   <si>
@@ -289,10 +295,13 @@
     <t>2+, 8-</t>
   </si>
   <si>
+    <t>1+, 13-</t>
+  </si>
+  <si>
     <t>139</t>
   </si>
   <si>
-    <t>10-</t>
+    <t>1+, 15-</t>
   </si>
   <si>
     <t>187</t>
@@ -308,6 +317,33 @@
   </si>
   <si>
     <t>5+, 1-</t>
+  </si>
+  <si>
+    <t>25.01.14</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>1+, 24-</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>23-</t>
+  </si>
+  <si>
+    <t>161D</t>
+  </si>
+  <si>
+    <t>484E</t>
+  </si>
+  <si>
+    <t>4+, 9-</t>
   </si>
 </sst>
 </file>
@@ -673,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -799,10 +835,10 @@
         <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>29</v>
@@ -813,37 +849,37 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -854,13 +890,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -869,22 +905,22 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -895,734 +931,841 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>64</v>
+      <c r="K17" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>96</v>
+      <c r="K34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N33"/>
+  <autoFilter ref="A1:N37"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -1676,6 +1819,10 @@
     <hyperlink ref="B31" r:id="rId50"/>
     <hyperlink ref="B32" r:id="rId51"/>
     <hyperlink ref="B33" r:id="rId52"/>
+    <hyperlink ref="B34" r:id="rId53"/>
+    <hyperlink ref="B35" r:id="rId54"/>
+    <hyperlink ref="B36" r:id="rId55"/>
+    <hyperlink ref="B37" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
